--- a/data/georgia_census/qvemo-qartli/tetriwyaro/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/tetriwyaro/education_graduates.xlsx
@@ -1846,13 +1846,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07106A9-954E-457B-9A66-97B9F16C087D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66176633-E13C-44F8-BC6B-926628308E68}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5AB230E-19D0-42C8-ABD8-3061F09AC06B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771AD95F-8D4B-4E6D-B913-E65B7A07F103}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DFDB90-1F60-4635-8CC4-A9D00840D06B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040107E6-3126-48F1-A4F9-A921DF13E4AB}"/>
 </file>